--- a/Simulador.xlsx
+++ b/Simulador.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyyamazaki.SBSP\Documents\GitHub\Dio.IA.Excel.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E1592A-2426-4D88-913D-C033505158CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379D7842-7C24-4C0B-B786-7AE8C24A355F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Aux" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="invest">Plan1!$D$13</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>Valores</t>
   </si>
@@ -84,18 +85,49 @@
   <si>
     <t>% sugerido</t>
   </si>
+  <si>
+    <t>PAPEL</t>
+  </si>
+  <si>
+    <t>TIJOLO</t>
+  </si>
+  <si>
+    <t>HÍBRIDOS</t>
+  </si>
+  <si>
+    <t>FOFs</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO</t>
+  </si>
+  <si>
+    <t>HOTELARIAS</t>
+  </si>
+  <si>
+    <t>Conservador</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>CHAVE</t>
+  </si>
+  <si>
+    <t>Agressivo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +173,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -162,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -376,6 +415,15 @@
       </top>
       <bottom style="thick">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -386,69 +434,120 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -469,6 +568,873 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$B$30:$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>PAPEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TIJOLO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HÍBRIDOS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FOFs</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DESENVOLVIMENTO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HOTELARIAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$30:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CB2-496F-B539-71B18F1BE536}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,7 +1550,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="4000" b="1" i="1">
               <a:solidFill>
@@ -606,7 +1572,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>16384</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -654,7 +1620,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>16384</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -692,6 +1658,42 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9894CB42-8E9A-44DD-86E6-146A0291A3CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -960,45 +1962,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:D29"/>
+  <dimension ref="A6:D36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="54.140625" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:4" ht="29.25" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="19">
-        <v>2000</v>
+      <c r="C8" s="5"/>
+      <c r="D8" s="9">
+        <v>4200</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="5">
+      <c r="C9" s="5"/>
+      <c r="D9" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -1006,78 +2009,78 @@
       <c r="A10" s="2">
         <v>0.3</v>
       </c>
-      <c r="B10" s="12" t="str">
+      <c r="B10" s="25" t="str">
         <f>"Sugestão de Investimento (" &amp; $A10*100 &amp; "%)"</f>
         <v>Sugestão de Investimento (30%)</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="20">
+      <c r="C10" s="6"/>
+      <c r="D10" s="10">
         <f>D8*$A10</f>
-        <v>600</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:4" ht="29.25" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="19">
-        <v>200</v>
+      <c r="C13" s="5"/>
+      <c r="D13" s="9">
+        <v>1260</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="23">
-        <v>5</v>
+      <c r="C14" s="5"/>
+      <c r="D14" s="13">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="5">
-        <v>1.0800000000000001E-2</v>
+      <c r="C15" s="5"/>
+      <c r="D15" s="43">
+        <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="21">
+      <c r="C16" s="7"/>
+      <c r="D16" s="11">
         <f>FV(Rendimento,Periodo*12,invest*-1)</f>
-        <v>16760.803871851687</v>
+        <v>306538.10778801696</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="22">
+      <c r="C17" s="8"/>
+      <c r="D17" s="12">
         <f>patrimonio*rend_cart</f>
-        <v>100.56482323111013</v>
+        <v>1839.2286467281017</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:4" ht="29.25" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1085,115 +2088,202 @@
       <c r="A20" s="2">
         <v>2</v>
       </c>
-      <c r="B20" s="25" t="str">
+      <c r="B20" s="28" t="str">
         <f>"Em "&amp;$A20&amp;" anos"</f>
         <v>Em 2 anos</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="15">
         <f>FV(Rendimento,$A20*12,invest*-1)</f>
-        <v>5446.172732116318</v>
-      </c>
-      <c r="D20" s="26">
+        <v>34306.810395032975</v>
+      </c>
+      <c r="D20" s="22">
         <f>C20*rend_cart</f>
-        <v>32.677036392697907</v>
+        <v>205.84086237019787</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="25" t="str">
+      <c r="B21" s="28" t="str">
         <f t="shared" ref="B21:B24" si="0">"Em "&amp;$A21&amp;" anos"</f>
         <v>Em 5 anos</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="15">
         <f>FV(Rendimento,$A21*12,invest*-1)</f>
-        <v>16760.803871851687</v>
-      </c>
-      <c r="D21" s="26">
+        <v>105558.91163809443</v>
+      </c>
+      <c r="D21" s="22">
         <f>C21*rend_cart</f>
-        <v>100.56482323111013</v>
+        <v>633.35346982856663</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>10</v>
       </c>
-      <c r="B22" s="25" t="str">
+      <c r="B22" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Em 10 anos</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="15">
         <f>FV(Rendimento,$A22*12,invest*-1)</f>
-        <v>48691.533250960019</v>
-      </c>
-      <c r="D22" s="26">
+        <v>306538.10778801696</v>
+      </c>
+      <c r="D22" s="22">
         <f>C22*rend_cart</f>
-        <v>292.14919950576012</v>
+        <v>1839.2286467281017</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="25" t="str">
+      <c r="B23" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Em 20 anos</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="15">
         <f>FV(Rendimento,$A23*12,invest*-1)</f>
-        <v>225409.79865970465</v>
-      </c>
-      <c r="D23" s="26">
+        <v>1417749.9841223215</v>
+      </c>
+      <c r="D23" s="22">
         <f>C23*rend_cart</f>
-        <v>1352.4587919582279</v>
+        <v>8506.4999047339297</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>30</v>
       </c>
-      <c r="B24" s="27" t="str">
+      <c r="B24" s="29" t="str">
         <f t="shared" si="0"/>
         <v>Em 30 anos</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="16">
         <f>FV(Rendimento,$A24*12,invest*-1)</f>
-        <v>866780.96206335025</v>
-      </c>
-      <c r="D24" s="28">
+        <v>5445933.7653059401</v>
+      </c>
+      <c r="D24" s="23">
         <f>C24*rend_cart</f>
-        <v>5200.6857723801013</v>
+        <v>32675.602591835643</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="24"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="33">
         <f>invest</f>
-        <v>200</v>
-      </c>
+        <v>1260</v>
+      </c>
+      <c r="D27" s="14"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="34" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="40">
+        <f>VLOOKUP($C$26&amp;"-"&amp;$B30,Aux!$A$3:$D$20,4,FALSE)</f>
+        <v>0.32</v>
+      </c>
+      <c r="D30" s="44">
+        <f>C30*C$27</f>
+        <v>403.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="40">
+        <f>VLOOKUP($C$26&amp;"-"&amp;$B31,Aux!$A$3:$D$20,4,FALSE)</f>
+        <v>0.35</v>
+      </c>
+      <c r="D31" s="44">
+        <f t="shared" ref="D31:D35" si="1">C31*C$27</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="40">
+        <f>VLOOKUP($C$26&amp;"-"&amp;$B32,Aux!$A$3:$D$20,4,FALSE)</f>
+        <v>0.08</v>
+      </c>
+      <c r="D32" s="44">
+        <f t="shared" si="1"/>
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="40">
+        <f>VLOOKUP($C$26&amp;"-"&amp;$B33,Aux!$A$3:$D$20,4,FALSE)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D33" s="44">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="40">
+        <f>VLOOKUP($C$26&amp;"-"&amp;$B34,Aux!$A$3:$D$20,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="44">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="40">
+        <f>VLOOKUP($C$26&amp;"-"&amp;$B35,Aux!$A$3:$D$20,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D35" s="44">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="31"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46">
+        <f>SUM(D30:D35)</f>
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
@@ -1202,8 +2292,318 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B19:C19"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26" xr:uid="{EF400301-2F7D-46D8-A543-607375B86F76}">
+      <formula1>"Conservador,Moderado,Agressivo"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F85C559-0A7A-4920-B704-1E3DA3F64C56}">
+  <dimension ref="A2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>B3&amp;"-"&amp;C3</f>
+        <v>Conservador-PAPEL</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="40">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A20" si="0">B4&amp;"-"&amp;C4</f>
+        <v>Conservador-TIJOLO</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Conservador-HÍBRIDOS</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Conservador-FOFs</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Conservador-DESENVOLVIMENTO</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>Conservador-HOTELARIAS</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Moderado-PAPEL</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="42">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>Moderado-TIJOLO</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="40">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>Moderado-HÍBRIDOS</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>Moderado-FOFs</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="40">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>Moderado-DESENVOLVIMENTO</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>Moderado-HOTELARIAS</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>Agressivo-PAPEL</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>Agressivo-TIJOLO</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>Agressivo-HÍBRIDOS</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="40">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>Agressivo-FOFs</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="40">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>Agressivo-DESENVOLVIMENTO</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="40">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>Agressivo-HOTELARIAS</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="40">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>